--- a/media/mxq_compile.xlsx
+++ b/media/mxq_compile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171A342-BAEA-4024-90C4-B475C6F9B21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77675E21-05A0-4D64-8759-87C6E0AB1AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
-This should be between 0 and 1. (Ex. 0.999, 0.9999)
-Defaults to 0.9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>topk_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,48 +174,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Filename of the resulting .mxq.
+If it is None, then it is set to "model_nickname".mxq
+Defaults to None.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuple or list (optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input shape in HWC. Required only for using PyTorch model and backend="tvm".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Model path or model instance. Model should be instance for the following cases:
-Using backend="onnx" and a onnx model path
-Using backend="tvm" and a Keras model
-Using backend="tvm" and a PyTorch model
-Using backend="tf" and a fronzen TensorFlow PB graph</t>
+Using backend="onnx" and a onnx model path,
+Using backend="tvm" and a Keras model,
+Using backend="tvm" and a PyTorch model,
+Using backend="tf" and a fronzen TensorFlow PB graph.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Which framework to use to get the Mobilint IR.
 It must be one of "onnx", "tf", and "tvm".
 They correspond to deep learning frameworks as follows:
-"onnx": ONNX
-"tf": TensorFlow
-"tvm": PyTorch, Keras, ONNX
-Defaults to "onnx"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filename of the resulting .mxq.
-If it is None, then it is set to "model_nickname".mxq
-Defaults to None.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuple or list (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input shape in HWC. Required only for using PyTorch model and backend="tvm".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device</t>
+"onnx": ONNX,
+"tf": TensorFlow,
+"tvm": PyTorch, Keras, ONNX,
+Defaults to "onnx".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Device to be used for compile and inerence. Either "cpu" or "gpu".
-Defaults to "cpu"</t>
+Defaults to "cpu".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
+This should be between 0 and 1. (Ex. 0.999, 0.9999)
+Defaults to 0.9999.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,13 +618,13 @@
     </row>
     <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -657,40 +657,40 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -712,73 +712,73 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/media/mxq_compile.xlsx
+++ b/media/mxq_compile.xlsx
@@ -1,260 +1,533 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77675E21-05A0-4D64-8759-87C6E0AB1AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView windowWidth="21540" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
+    <t>Parameter</t>
+  </si>
+  <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>string or model instance</t>
+  </si>
+  <si>
+    <t>Model path or model instance. Model should be instance for the following cases:
+Using backend="onnx" and a ONNX model path
+Using backend="tvm" and a Keras model
+Using backend="tvm" and a PyTorch model
+Using backend="tf" and a fronzen TensorFlow PB graph</t>
+  </si>
+  <si>
+    <t>model_nickname</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model_nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Model nickname used in qubee. qubee stores previous optimization information to 
 recompile same models faster. qubee finds the previously compiled result with nickname.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>calib_txt_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>.txt file contain calibration dataset list, which results from "make_calib".
 Calibration dataset should be .npy files with np.float32 dtype.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>save_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string (optional)</t>
+  </si>
+  <si>
+    <t>Filename of the resulting .mxq.
+If it is None, then it is set to "model_nickname".mxq
+Defaults to None.</t>
+  </si>
+  <si>
+    <t>input_shape</t>
+  </si>
+  <si>
+    <t>tuple or list (optional)</t>
+  </si>
+  <si>
+    <t>Input shape in HWC. Required only for using PyTorch model and backend="tvm".</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>Which framework to use to get the Mobilint IR.
+It must be one of "onnx", "tf", and "tvm".
+They correspond to deep learning frameworks as follows:
+"onnx": ONNX
+"tf": TensorFlow
+"tvm": PyTorch, Keras, ONNX
+Defaults to "onnx"</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>Device to be used for compile and inerence. Either "cpu" or "gpu".
+Defaults to "cpu"</t>
   </si>
   <si>
     <t>quantize_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Quantization method to determine the scale parameter in the quantization.
 Currently, "Max", "Percentile", "MaxPercentile" are supported.
 Defaults to "Percentile".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>quantize_percentile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
+This should be between 0 and 1. (Ex. 0.999, 0.9999)
+Defaults to 0.9999</t>
   </si>
   <si>
     <t>topk_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It is used for quantization method "maxpercentile". Defaults to 0.
 The larger this value is, the more data is used for calibration.
 This should be between 0 and 1, but using a value of 0.01 or less is recommended.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>is_quant_ch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use multi-channel quantization if True. Defaults to False.
 If is_quant_ch is set to True, only "Max" and "MaxPercentile" are supported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>optimization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>If true, it compiles the model with optimization process. If false, qubee uses 
 previous optimization information when stored in previous compiling. 
 (Nickname should be the same.) It must be set to True on the first compile.
 Defaults to True.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>optimization_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Optimization level in the compiler. If optimization level is high, NPU inference 
 could be faster, but it takes more time for compiling. (Recommend: 3~6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>save_sample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>If true, create the "sampleInOut" folder in the current directory and store the input and output binary files in it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>use_random_calib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>If true, it compiles the given model with random calibration data.
 This is just used to check if the model is compilable without making a calibration data.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string or model instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filename of the resulting .mxq.
-If it is None, then it is set to "model_nickname".mxq
-Defaults to None.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuple or list (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input shape in HWC. Required only for using PyTorch model and backend="tvm".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model path or model instance. Model should be instance for the following cases:
-Using backend="onnx" and a onnx model path,
-Using backend="tvm" and a Keras model,
-Using backend="tvm" and a PyTorch model,
-Using backend="tf" and a fronzen TensorFlow PB graph.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which framework to use to get the Mobilint IR.
-It must be one of "onnx", "tf", and "tvm".
-They correspond to deep learning frameworks as follows:
-"onnx": ONNX,
-"tf": TensorFlow,
-"tvm": PyTorch, Keras, ONNX,
-Defaults to "onnx".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device to be used for compile and inerence. Either "cpu" or "gpu".
-Defaults to "cpu".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
-This should be between 0 and 1. (Ex. 0.999, 0.9999)
-Defaults to 0.9999.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,34 +535,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -371,26 +930,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -423,23 +965,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,209 +1106,204 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="80.625" customWidth="1"/>
+    <col min="1" max="1" width="20.6222222222222" customWidth="1"/>
+    <col min="2" max="2" width="40.6222222222222" customWidth="1"/>
+    <col min="3" max="3" width="80.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" ht="75" spans="1:3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="105" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:3">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="13" ht="60" spans="1:3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="16" ht="30" spans="1:3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/media/mxq_compile.xlsx
+++ b/media/mxq_compile.xlsx
@@ -32,10 +32,10 @@
   </si>
   <si>
     <t>Model path or model instance. Model should be instance for the following cases:
-Using backend="onnx" and a ONNX model path
-Using backend="tvm" and a Keras model
-Using backend="tvm" and a PyTorch model
-Using backend="tf" and a fronzen TensorFlow PB graph</t>
+Using backend="onnx" and a ONNX model path,
+Using backend="tvm" and a Keras model,
+Using backend="tvm" and a PyTorch model,
+Using backend="tf" and a fronzen TensorFlow PB graph.</t>
   </si>
   <si>
     <t>model_nickname</t>
@@ -81,17 +81,17 @@
     <t>Which framework to use to get the Mobilint IR.
 It must be one of "onnx", "tf", and "tvm".
 They correspond to deep learning frameworks as follows:
-"onnx": ONNX
-"tf": TensorFlow
-"tvm": PyTorch, Keras, ONNX
-Defaults to "onnx"</t>
+"onnx": ONNX,
+"tf": TensorFlow,
+"tvm": PyTorch, Keras, ONNX,
+Defaults to "onnx".</t>
   </si>
   <si>
     <t>device</t>
   </si>
   <si>
     <t>Device to be used for compile and inerence. Either "cpu" or "gpu".
-Defaults to "cpu"</t>
+Defaults to "cpu".</t>
   </si>
   <si>
     <t>quantize_method</t>
@@ -110,7 +110,7 @@
   <si>
     <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
 This should be between 0 and 1. (Ex. 0.999, 0.9999)
-Defaults to 0.9999</t>
+Defaults to 0.9999.</t>
   </si>
   <si>
     <t>topk_ratio</t>
@@ -168,8 +168,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -182,6 +182,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -193,19 +200,67 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,55 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +290,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,44 +328,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,49 +342,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,133 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +533,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,11 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,30 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -603,183 +633,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>

--- a/media/mxq_compile.xlsx
+++ b/media/mxq_compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\Manual\SDK\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F087FC-FA73-44CB-AB93-10AAFA54EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CAF23-B5F1-4C1B-8594-4C537C9C13E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Parameter</t>
   </si>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Model nickname used in qubee. qubee stores previous optimization information to 
-recompile same models faster. qubee finds the previously compiled result with nickname.</t>
   </si>
   <si>
     <t>save_path</t>
@@ -167,6 +163,18 @@
   </si>
   <si>
     <t>A path to the calibration dataset. It can be either of a path to the text file (or json) containing the paths to the pre-processed numpy files or a directory containing the pre-processed numpy files.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string (optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model nickname used in qubee. It is used in qubee to facilitate quicker recompilation of the same models.
+Qubee stores prior optimization information under this nickname, enabling it to locate and utilize the previously compiled results for faster processing.
+It is auto-generated from the model's base name, if not provided.
+For instance, a model "/workspace/onnx/resnet50.onnx" results in "resnet50".
+If not derivable, "temporary" is the default nickname.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +525,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,158 +557,158 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="4" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/media/mxq_compile.xlsx
+++ b/media/mxq_compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\Manual\SDK\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CAF23-B5F1-4C1B-8594-4C537C9C13E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A4049-520E-4666-8A63-9137749E467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="1440" windowWidth="17610" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>Parameter</t>
   </si>
@@ -35,13 +35,6 @@
   </si>
   <si>
     <t>string or model instance</t>
-  </si>
-  <si>
-    <t>Model path or model instance. Model should be instance for the following cases:
-Using backend="onnx" and a ONNX model path,
-Using backend="tvm" and a Keras model,
-Using backend="tvm" and a PyTorch model,
-Using backend="tf" and a fronzen TensorFlow PB graph.</t>
   </si>
   <si>
     <t>model_nickname</t>
@@ -67,19 +60,7 @@
     <t>tuple or list (optional)</t>
   </si>
   <si>
-    <t>Input shape in HWC. Required only for using PyTorch model and backend="tvm".</t>
-  </si>
-  <si>
     <t>backend</t>
-  </si>
-  <si>
-    <t>Which framework to use to get the Mobilint IR.
-It must be one of "onnx", "tf", and "tvm".
-They correspond to deep learning frameworks as follows:
-"onnx": ONNX,
-"tf": TensorFlow,
-"tvm": PyTorch, Keras, ONNX,
-Defaults to "onnx".</t>
   </si>
   <si>
     <t>device</t>
@@ -92,20 +73,10 @@
     <t>quantize_method</t>
   </si>
   <si>
-    <t>Quantization method to determine the scale parameter in the quantization.
-Currently, "Max", "Percentile", "MaxPercentile" are supported.
-Defaults to "Percentile".</t>
-  </si>
-  <si>
     <t>quantize_percentile</t>
   </si>
   <si>
     <t>float (optional)</t>
-  </si>
-  <si>
-    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
-This should be between 0 and 1. (Ex. 0.999, 0.9999)
-Defaults to 0.9999.</t>
   </si>
   <si>
     <t>topk_ratio</t>
@@ -122,40 +93,19 @@
     <t>bool (optional)</t>
   </si>
   <si>
-    <t>Use multi-channel quantization if True. Defaults to False.
-If is_quant_ch is set to True, only "Max" and "MaxPercentile" are supported.</t>
-  </si>
-  <si>
     <t>optimization</t>
   </si>
   <si>
-    <t>If true, it compiles the model with optimization process. If false, qubee uses 
-previous optimization information when stored in previous compiling. 
-(Nickname should be the same.) It must be set to True on the first compile.
-Defaults to True.</t>
-  </si>
-  <si>
     <t>optimization_level</t>
   </si>
   <si>
     <t>int (optional)</t>
   </si>
   <si>
-    <t>Optimization level in the compiler. If optimization level is high, NPU inference 
-could be faster, but it takes more time for compiling. (Recommend: 3~6)</t>
-  </si>
-  <si>
     <t>save_sample</t>
   </si>
   <si>
-    <t>If true, create the "sampleInOut" folder in the current directory and store the input and output binary files in it.</t>
-  </si>
-  <si>
     <t>use_random_calib</t>
-  </si>
-  <si>
-    <t>If true, it compiles the given model with random calibration data.
-This is just used to check if the model is compilable without making a calibration data.</t>
   </si>
   <si>
     <t>calib_data_path</t>
@@ -177,12 +127,190 @@
 If not derivable, "temporary" is the default nickname.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Model path or model instance. Model should be instance for the following cases:
+Using backend="onnx" and a ONNX model path,
+Using backend="torchscript" and a PyTorch model,
+Using backend="tf1" or "tf2" and a fronzen TensorFlow PB graph.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input shape in HWC. Required only for using PyTorch model and backend="torchscript".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which framework to use to get the Mobilint IR.
+It must be one of "onnx", "tf1", "tf2", and "torchscript".
+They correspond to deep learning frameworks as follows:
+"onnx": ONNX,
+"tf1" or "tf2": TensorFlow, Keras
+"torchscript": PyTorch
+Defaults to "onnx".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantization method to determine the scale parameter in the quantization.
+Currently, "Max", "Percentile", "MaxPercentile" and "KL" are supported.
+Defaults to "Percentile".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
+This should be between 0 and 1. (Ex. 0.999, 0.9999)
+Defaults to 0.99995.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float (optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use multi-channel quantization if True. Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_offload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool (optional)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use CPU offloading for NPU inference if True. Defaults to False.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quant_output</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_useadaquant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_weightDeltaLR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float (optional)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_biasDeltaLR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_weightScaleLR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_biasScaleLR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_actScaleLR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_batchSize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int (optional)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_epoch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, enable the finetuning with AdaQuant after quantization.
+Defaults to False.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning weight delta(weight update) of AdaQuant. (Recommend: 1e-6 ~ 5e-5)
+Defaults to 0.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning bias delta(bias update) of AdaQuant. (Recommend: weightDeltaLR/10 ~ weightDeltaLR/2)
+Defaults to 0.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning weight quantization scale of AdaQuant.
+Defaults to 0.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning bias quantization scale of AdaQuant.
+Defaults to 0.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning activation quantization scale of AdaQuant.
+Defaults to 0.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch size for running AdaQuant.
+Defaults to 16.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epochs for repeating AdaQuant update.
+Defaults to 10.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smooth factor for Gaussian kernel construction, which is required on KL divergence estimation.
+Defaults to 1.6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, it compiles the model with optimization process. If false, qubee uses 
+previous optimization information when stored in previous compiling. 
+(Nickname should be the same.) It must be set to True on the first compile.
+Defaults to True.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimization level in the compiler. If optimization level is high, NPU inference 
+could be faster, but it takes more time for compiling. (Recommend: 3~6)
+Defaults to 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, create the "sampleInOut" folder in the current directory and store the input and output binary files in it.
+Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, it compiles the given model with random calibration data.
+This is just used to check if the model is compilable without making a calibration data.
+Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantization method that applied to the output layer. "layer", "ch" and "sigmoid" options are available.
+If "layer", per-layer quantization is applied to the output layer. If is_quant_ch is true, then the computed quantization scale for each channel of the output layer will be merged into single value.
+If "ch", per-channel quantization is applied to the output layer. This option is valid only when is_quant_ch is true.
+If "sigmoid", assign quantization scale that computed with sigmoid function.
+Defaults to "layer".</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +330,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -522,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,169 +681,290 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/media/mxq_compile.xlsx
+++ b/media/mxq_compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A4049-520E-4666-8A63-9137749E467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF6103-66CA-4929-B07A-39D730F61AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1440" windowWidth="17610" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A path to the calibration dataset. It can be either of a path to the text file (or json) containing the paths to the pre-processed numpy files or a directory containing the pre-processed numpy files.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string (optional)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,24 +124,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model path or model instance. Model should be instance for the following cases:
-Using backend="onnx" and a ONNX model path,
-Using backend="torchscript" and a PyTorch model,
-Using backend="tf1" or "tf2" and a fronzen TensorFlow PB graph.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Input shape in HWC. Required only for using PyTorch model and backend="torchscript".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which framework to use to get the Mobilint IR.
-It must be one of "onnx", "tf1", "tf2", and "torchscript".
-They correspond to deep learning frameworks as follows:
-"onnx": ONNX,
-"tf1" or "tf2": TensorFlow, Keras
-"torchscript": PyTorch
-Defaults to "onnx".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,6 +283,29 @@
 If "sigmoid", assign quantization scale that computed with sigmoid function.
 Defaults to "layer".</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model path or model instance. Model should be instance for the following cases:
+When using backend="onnx", it should be the path to ONNX model file
+When using backend="torchscript", it should be the path to PyTorch model file
+When using backend="tf", it should be the path to the folder saving TensorFlow PB graph and assets.
+When using backend="tflite", it should be the path to TF Lite model file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A path to the calibration dataset. It can be either of a path to the text (or json) file containing the paths to the pre-processed numpy files or a directory containing the pre-processed numpy files.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which framework to use to get the Mobilint IR.
+It must be one of "onnx", "tf1", "tf2", and "torchscript".
+They correspond to deep learning frameworks as follows:
+"onnx": ONNX,
+"tf": TensorFlow,
+"tflite": TensorFlow Lite,
+"torchscript": PyTorch
+Defaults to "onnx".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -689,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -700,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
@@ -708,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -733,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -744,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -766,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -777,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -793,13 +795,13 @@
     </row>
     <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -810,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -821,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -832,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -843,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -854,117 +856,117 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
